--- a/dataanalysis/data/predictions/1600/09031522_1524.xlsx
+++ b/dataanalysis/data/predictions/1600/09031522_1524.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="129">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-03</t>
   </si>
   <si>
@@ -398,12 +401,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -761,13 +758,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH60"/>
+  <dimension ref="A1:AI60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -870,19 +867,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300035</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>6.21</v>
@@ -900,7 +900,7 @@
         <v>285522.43</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -941,8 +941,23 @@
       <c r="W2">
         <v>1.72</v>
       </c>
+      <c r="X2">
+        <v>2.92</v>
+      </c>
+      <c r="Y2">
+        <v>23.8</v>
+      </c>
+      <c r="Z2">
+        <v>8.68</v>
+      </c>
       <c r="AC2" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -950,22 +965,25 @@
       <c r="AG2">
         <v>0.542009711265564</v>
       </c>
-      <c r="AH2" t="s">
-        <v>128</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300092</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>20.01</v>
@@ -983,7 +1001,7 @@
         <v>174580.52</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -1024,8 +1042,23 @@
       <c r="W3">
         <v>2.65</v>
       </c>
+      <c r="X3">
+        <v>-5.1</v>
+      </c>
+      <c r="Y3">
+        <v>20.19</v>
+      </c>
+      <c r="Z3">
+        <v>2.96</v>
+      </c>
       <c r="AC3" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>1</v>
@@ -1033,22 +1066,25 @@
       <c r="AG3">
         <v>17.65574645996094</v>
       </c>
-      <c r="AH3" t="s">
-        <v>129</v>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300111</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>2.26</v>
@@ -1066,7 +1102,7 @@
         <v>46627.24</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -1107,8 +1143,23 @@
       <c r="W4">
         <v>0.95</v>
       </c>
+      <c r="X4">
+        <v>-2.21</v>
+      </c>
+      <c r="Y4">
+        <v>4.58</v>
+      </c>
+      <c r="Z4">
+        <v>1.1</v>
+      </c>
       <c r="AC4" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1116,22 +1167,25 @@
       <c r="AG4">
         <v>3.050873041152954</v>
       </c>
-      <c r="AH4" t="s">
-        <v>128</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300237</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-6.7</v>
@@ -1149,7 +1203,7 @@
         <v>91310.39999999999</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K5">
         <v>5</v>
@@ -1190,8 +1244,23 @@
       <c r="W5">
         <v>-1.79</v>
       </c>
+      <c r="X5">
+        <v>-4.79</v>
+      </c>
+      <c r="Y5">
+        <v>3.45</v>
+      </c>
+      <c r="Z5">
+        <v>3.29</v>
+      </c>
       <c r="AC5" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1199,22 +1268,25 @@
       <c r="AG5">
         <v>-1.06485390663147</v>
       </c>
-      <c r="AH5" t="s">
-        <v>128</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300274</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>15.3</v>
@@ -1232,7 +1304,7 @@
         <v>1558824.45</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1273,8 +1345,23 @@
       <c r="W6">
         <v>0.68</v>
       </c>
+      <c r="X6">
+        <v>0.96</v>
+      </c>
+      <c r="Y6">
+        <v>124.08</v>
+      </c>
+      <c r="Z6">
+        <v>7.99</v>
+      </c>
       <c r="AC6" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1282,22 +1369,25 @@
       <c r="AG6">
         <v>-4.750564575195312</v>
       </c>
-      <c r="AH6" t="s">
-        <v>128</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300308</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>10.99</v>
@@ -1315,7 +1405,7 @@
         <v>2871662.59</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K7">
         <v>37</v>
@@ -1356,8 +1446,23 @@
       <c r="W7">
         <v>0.24</v>
       </c>
+      <c r="X7">
+        <v>-13.39</v>
+      </c>
+      <c r="Y7">
+        <v>448</v>
+      </c>
+      <c r="Z7">
+        <v>5.12</v>
+      </c>
       <c r="AC7" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1365,22 +1470,25 @@
       <c r="AG7">
         <v>-2.003262281417847</v>
       </c>
-      <c r="AH7" t="s">
-        <v>128</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300324</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-7.27</v>
@@ -1398,7 +1506,7 @@
         <v>318004.63</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K8">
         <v>11</v>
@@ -1439,8 +1547,23 @@
       <c r="W8">
         <v>-1.52</v>
       </c>
+      <c r="X8">
+        <v>-10.73</v>
+      </c>
+      <c r="Y8">
+        <v>7.42</v>
+      </c>
+      <c r="Z8">
+        <v>2.06</v>
+      </c>
       <c r="AC8" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1448,22 +1571,25 @@
       <c r="AG8">
         <v>0.5161237120628357</v>
       </c>
-      <c r="AH8" t="s">
-        <v>128</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300363</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>7.36</v>
@@ -1481,7 +1607,7 @@
         <v>167354.02</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1522,8 +1648,23 @@
       <c r="W9">
         <v>0.09</v>
       </c>
+      <c r="X9">
+        <v>-7.41</v>
+      </c>
+      <c r="Y9">
+        <v>26.99</v>
+      </c>
+      <c r="Z9">
+        <v>1.05</v>
+      </c>
       <c r="AC9" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1531,22 +1672,25 @@
       <c r="AG9">
         <v>4.607522487640381</v>
       </c>
-      <c r="AH9" t="s">
-        <v>128</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300394</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>3.08</v>
@@ -1564,7 +1708,7 @@
         <v>1091093.61</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10">
         <v>27</v>
@@ -1605,8 +1749,23 @@
       <c r="W10">
         <v>-0.11</v>
       </c>
+      <c r="X10">
+        <v>-15.42</v>
+      </c>
+      <c r="Y10">
+        <v>208</v>
+      </c>
+      <c r="Z10">
+        <v>1.31</v>
+      </c>
       <c r="AC10" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>1</v>
@@ -1614,22 +1773,25 @@
       <c r="AG10">
         <v>15.98960781097412</v>
       </c>
-      <c r="AH10" t="s">
-        <v>128</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300409</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>9.74</v>
@@ -1647,7 +1809,7 @@
         <v>367716.84</v>
       </c>
       <c r="J11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11">
         <v>13</v>
@@ -1688,8 +1850,23 @@
       <c r="W11">
         <v>1.12</v>
       </c>
+      <c r="X11">
+        <v>-4.95</v>
+      </c>
+      <c r="Y11">
+        <v>23.92</v>
+      </c>
+      <c r="Z11">
+        <v>3.01</v>
+      </c>
       <c r="AC11" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1697,22 +1874,25 @@
       <c r="AG11">
         <v>-0.8530470728874207</v>
       </c>
-      <c r="AH11" t="s">
-        <v>128</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300450</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0.37</v>
@@ -1730,7 +1910,7 @@
         <v>843084.24</v>
       </c>
       <c r="J12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K12">
         <v>4</v>
@@ -1771,8 +1951,23 @@
       <c r="W12">
         <v>-0.43</v>
       </c>
+      <c r="X12">
+        <v>1.98</v>
+      </c>
+      <c r="Y12">
+        <v>47.68</v>
+      </c>
+      <c r="Z12">
+        <v>8.460000000000001</v>
+      </c>
       <c r="AC12" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1780,22 +1975,25 @@
       <c r="AG12">
         <v>16.40593147277832</v>
       </c>
-      <c r="AH12" t="s">
-        <v>128</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300457</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>2.66</v>
@@ -1813,7 +2011,7 @@
         <v>217160.86</v>
       </c>
       <c r="J13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1854,8 +2052,23 @@
       <c r="W13">
         <v>0.14</v>
       </c>
+      <c r="X13">
+        <v>1.09</v>
+      </c>
+      <c r="Y13">
+        <v>29.14</v>
+      </c>
+      <c r="Z13">
+        <v>6.2</v>
+      </c>
       <c r="AC13" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1863,22 +2076,25 @@
       <c r="AG13">
         <v>3.222018003463745</v>
       </c>
-      <c r="AH13" t="s">
-        <v>128</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300465</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-6.98</v>
@@ -1896,7 +2112,7 @@
         <v>213455.32</v>
       </c>
       <c r="J14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K14">
         <v>5</v>
@@ -1937,8 +2153,23 @@
       <c r="W14">
         <v>-2.22</v>
       </c>
+      <c r="X14">
+        <v>-4.01</v>
+      </c>
+      <c r="Y14">
+        <v>26.19</v>
+      </c>
+      <c r="Z14">
+        <v>3.93</v>
+      </c>
       <c r="AC14" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1946,22 +2177,25 @@
       <c r="AG14">
         <v>0.000357896089553833</v>
       </c>
-      <c r="AH14" t="s">
-        <v>128</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300469</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>9.75</v>
@@ -1979,7 +2213,7 @@
         <v>143434.96</v>
       </c>
       <c r="J15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15">
         <v>10</v>
@@ -2020,8 +2254,23 @@
       <c r="W15">
         <v>-0.17</v>
       </c>
+      <c r="X15">
+        <v>-4.65</v>
+      </c>
+      <c r="Y15">
+        <v>67.86</v>
+      </c>
+      <c r="Z15">
+        <v>2.88</v>
+      </c>
       <c r="AC15" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2029,22 +2278,25 @@
       <c r="AG15">
         <v>0.2252516746520996</v>
       </c>
-      <c r="AH15" t="s">
-        <v>128</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300476</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-0.07000000000000001</v>
@@ -2062,7 +2314,7 @@
         <v>1507177.78</v>
       </c>
       <c r="J16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K16">
         <v>61</v>
@@ -2103,8 +2355,23 @@
       <c r="W16">
         <v>0.09</v>
       </c>
+      <c r="X16">
+        <v>-8.81</v>
+      </c>
+      <c r="Y16">
+        <v>288</v>
+      </c>
+      <c r="Z16">
+        <v>6.54</v>
+      </c>
       <c r="AC16" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -2112,22 +2379,25 @@
       <c r="AG16">
         <v>4.32542085647583</v>
       </c>
-      <c r="AH16" t="s">
-        <v>128</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300486</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>9.960000000000001</v>
@@ -2145,7 +2415,7 @@
         <v>231636.86</v>
       </c>
       <c r="J17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17">
         <v>11</v>
@@ -2186,8 +2456,23 @@
       <c r="W17">
         <v>0.34</v>
       </c>
+      <c r="X17">
+        <v>2.15</v>
+      </c>
+      <c r="Y17">
+        <v>28.9</v>
+      </c>
+      <c r="Z17">
+        <v>10.94</v>
+      </c>
       <c r="AC17" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2195,22 +2480,25 @@
       <c r="AG17">
         <v>-0.1232402101159096</v>
       </c>
-      <c r="AH17" t="s">
-        <v>128</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300491</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>-2.82</v>
@@ -2228,7 +2516,7 @@
         <v>62472.76</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K18">
         <v>9</v>
@@ -2269,8 +2557,23 @@
       <c r="W18">
         <v>-1.73</v>
       </c>
+      <c r="X18">
+        <v>-6.96</v>
+      </c>
+      <c r="Y18">
+        <v>38</v>
+      </c>
+      <c r="Z18">
+        <v>4.11</v>
+      </c>
       <c r="AC18" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2278,22 +2581,25 @@
       <c r="AG18">
         <v>66.64098358154297</v>
       </c>
-      <c r="AH18" t="s">
-        <v>128</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300502</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>3.21</v>
@@ -2311,7 +2617,7 @@
         <v>2653890.36</v>
       </c>
       <c r="J19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K19">
         <v>51</v>
@@ -2352,8 +2658,23 @@
       <c r="W19">
         <v>-0.11</v>
       </c>
+      <c r="X19">
+        <v>-15.58</v>
+      </c>
+      <c r="Y19">
+        <v>393.71</v>
+      </c>
+      <c r="Z19">
+        <v>6.49</v>
+      </c>
       <c r="AC19" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2361,22 +2682,25 @@
       <c r="AG19">
         <v>-2.522694110870361</v>
       </c>
-      <c r="AH19" t="s">
-        <v>128</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300548</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>4.21</v>
@@ -2394,7 +2718,7 @@
         <v>356429.93</v>
       </c>
       <c r="J20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2435,8 +2759,23 @@
       <c r="W20">
         <v>0.54</v>
       </c>
+      <c r="X20">
+        <v>-12.36</v>
+      </c>
+      <c r="Y20">
+        <v>144</v>
+      </c>
+      <c r="Z20">
+        <v>6.05</v>
+      </c>
       <c r="AC20" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2444,22 +2783,25 @@
       <c r="AG20">
         <v>14.0344934463501</v>
       </c>
-      <c r="AH20" t="s">
-        <v>128</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300573</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-3.04</v>
@@ -2477,7 +2819,7 @@
         <v>156193.06</v>
       </c>
       <c r="J21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -2518,8 +2860,23 @@
       <c r="W21">
         <v>-0.71</v>
       </c>
+      <c r="X21">
+        <v>-4.09</v>
+      </c>
+      <c r="Y21">
+        <v>76.37</v>
+      </c>
+      <c r="Z21">
+        <v>2.87</v>
+      </c>
       <c r="AC21" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2527,22 +2884,25 @@
       <c r="AG21">
         <v>44.69816589355469</v>
       </c>
-      <c r="AH21" t="s">
-        <v>128</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300584</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-2.25</v>
@@ -2560,7 +2920,7 @@
         <v>83764.56</v>
       </c>
       <c r="J22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K22">
         <v>17</v>
@@ -2601,8 +2961,23 @@
       <c r="W22">
         <v>-0.15</v>
       </c>
+      <c r="X22">
+        <v>-4.63</v>
+      </c>
+      <c r="Y22">
+        <v>69</v>
+      </c>
+      <c r="Z22">
+        <v>3.06</v>
+      </c>
       <c r="AC22" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2610,22 +2985,25 @@
       <c r="AG22">
         <v>-13.04781913757324</v>
       </c>
-      <c r="AH22" t="s">
-        <v>128</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300604</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>0.76</v>
@@ -2643,7 +3021,7 @@
         <v>270111.85</v>
       </c>
       <c r="J23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K23">
         <v>6</v>
@@ -2684,8 +3062,23 @@
       <c r="W23">
         <v>-0.24</v>
       </c>
+      <c r="X23">
+        <v>-8.76</v>
+      </c>
+      <c r="Y23">
+        <v>60.3</v>
+      </c>
+      <c r="Z23">
+        <v>1.58</v>
+      </c>
       <c r="AC23" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2693,22 +3086,25 @@
       <c r="AG23">
         <v>-2.031831502914429</v>
       </c>
-      <c r="AH23" t="s">
-        <v>128</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300620</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>5.54</v>
@@ -2726,7 +3122,7 @@
         <v>331072.15</v>
       </c>
       <c r="J24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K24">
         <v>17</v>
@@ -2767,8 +3163,23 @@
       <c r="W24">
         <v>0.02</v>
       </c>
+      <c r="X24">
+        <v>-11.56</v>
+      </c>
+      <c r="Y24">
+        <v>116.8</v>
+      </c>
+      <c r="Z24">
+        <v>10.46</v>
+      </c>
       <c r="AC24" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>1</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2776,22 +3187,25 @@
       <c r="AG24">
         <v>2.731097221374512</v>
       </c>
-      <c r="AH24" t="s">
-        <v>128</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300724</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>1.94</v>
@@ -2809,7 +3223,7 @@
         <v>431192.63</v>
       </c>
       <c r="J25" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K25">
         <v>12</v>
@@ -2850,8 +3264,23 @@
       <c r="W25">
         <v>0.21</v>
       </c>
+      <c r="X25">
+        <v>-10.34</v>
+      </c>
+      <c r="Y25">
+        <v>118.93</v>
+      </c>
+      <c r="Z25">
+        <v>5.58</v>
+      </c>
       <c r="AC25" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2859,22 +3288,25 @@
       <c r="AG25">
         <v>5.069853782653809</v>
       </c>
-      <c r="AH25" t="s">
-        <v>128</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300790</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-0.59</v>
@@ -2892,7 +3324,7 @@
         <v>80847.13</v>
       </c>
       <c r="J26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2933,8 +3365,23 @@
       <c r="W26">
         <v>0.2</v>
       </c>
+      <c r="X26">
+        <v>-9.66</v>
+      </c>
+      <c r="Y26">
+        <v>32.6</v>
+      </c>
+      <c r="Z26">
+        <v>1.91</v>
+      </c>
       <c r="AC26" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2942,22 +3389,25 @@
       <c r="AG26">
         <v>2.456937313079834</v>
       </c>
-      <c r="AH26" t="s">
-        <v>128</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>300953</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-2.6</v>
@@ -2975,7 +3425,7 @@
         <v>220995.92</v>
       </c>
       <c r="J27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K27">
         <v>6</v>
@@ -3016,8 +3466,23 @@
       <c r="W27">
         <v>-1.08</v>
       </c>
+      <c r="X27">
+        <v>-6.42</v>
+      </c>
+      <c r="Y27">
+        <v>157.81</v>
+      </c>
+      <c r="Z27">
+        <v>1.19</v>
+      </c>
       <c r="AC27" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3025,22 +3490,25 @@
       <c r="AG27">
         <v>-1.113661408424377</v>
       </c>
-      <c r="AH27" t="s">
-        <v>128</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>300955</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-8.73</v>
@@ -3058,7 +3526,7 @@
         <v>47533.59</v>
       </c>
       <c r="J28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K28">
         <v>5</v>
@@ -3099,8 +3567,23 @@
       <c r="W28">
         <v>-0.27</v>
       </c>
+      <c r="X28">
+        <v>2.96</v>
+      </c>
+      <c r="Y28">
+        <v>34</v>
+      </c>
+      <c r="Z28">
+        <v>5.95</v>
+      </c>
       <c r="AC28" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3108,22 +3591,25 @@
       <c r="AG28">
         <v>1.692816734313965</v>
       </c>
-      <c r="AH28" t="s">
-        <v>128</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301008</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>-2.24</v>
@@ -3141,7 +3627,7 @@
         <v>58536.99</v>
       </c>
       <c r="J29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K29">
         <v>7</v>
@@ -3182,8 +3668,23 @@
       <c r="W29">
         <v>0.48</v>
       </c>
+      <c r="X29">
+        <v>0.38</v>
+      </c>
+      <c r="Y29">
+        <v>36.28</v>
+      </c>
+      <c r="Z29">
+        <v>5.16</v>
+      </c>
       <c r="AC29" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3191,22 +3692,25 @@
       <c r="AG29">
         <v>9.07309627532959</v>
       </c>
-      <c r="AH29" t="s">
-        <v>128</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301031</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>6.85</v>
@@ -3224,7 +3728,7 @@
         <v>112083.19</v>
       </c>
       <c r="J30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -3265,8 +3769,23 @@
       <c r="W30">
         <v>1.24</v>
       </c>
+      <c r="X30">
+        <v>-4.95</v>
+      </c>
+      <c r="Y30">
+        <v>113.3</v>
+      </c>
+      <c r="Z30">
+        <v>2.72</v>
+      </c>
       <c r="AC30" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3274,22 +3793,25 @@
       <c r="AG30">
         <v>3.777065992355347</v>
       </c>
-      <c r="AH30" t="s">
-        <v>128</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301183</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-0.76</v>
@@ -3307,7 +3829,7 @@
         <v>95775.22</v>
       </c>
       <c r="J31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K31">
         <v>12</v>
@@ -3348,8 +3870,23 @@
       <c r="W31">
         <v>-0.54</v>
       </c>
+      <c r="X31">
+        <v>-10.06</v>
+      </c>
+      <c r="Y31">
+        <v>106</v>
+      </c>
+      <c r="Z31">
+        <v>3.02</v>
+      </c>
       <c r="AC31" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3357,22 +3894,25 @@
       <c r="AG31">
         <v>2.715712547302246</v>
       </c>
-      <c r="AH31" t="s">
-        <v>128</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301312</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>5.29</v>
@@ -3390,7 +3930,7 @@
         <v>67706.46000000001</v>
       </c>
       <c r="J32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K32">
         <v>18</v>
@@ -3431,8 +3971,23 @@
       <c r="W32">
         <v>0.71</v>
       </c>
+      <c r="X32">
+        <v>-0.38</v>
+      </c>
+      <c r="Y32">
+        <v>65.5</v>
+      </c>
+      <c r="Z32">
+        <v>7.61</v>
+      </c>
       <c r="AC32" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3440,22 +3995,25 @@
       <c r="AG32">
         <v>0.8784772157669067</v>
       </c>
-      <c r="AH32" t="s">
-        <v>128</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301316</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>-1.84</v>
@@ -3473,7 +4031,7 @@
         <v>159120.95</v>
       </c>
       <c r="J33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K33">
         <v>6</v>
@@ -3514,8 +4072,23 @@
       <c r="W33">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X33">
+        <v>-8.789999999999999</v>
+      </c>
+      <c r="Y33">
+        <v>64.56</v>
+      </c>
+      <c r="Z33">
+        <v>0.95</v>
+      </c>
       <c r="AC33" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3523,22 +4096,25 @@
       <c r="AG33">
         <v>9.746457099914551</v>
       </c>
-      <c r="AH33" t="s">
-        <v>128</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301413</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>-6.6</v>
@@ -3556,7 +4132,7 @@
         <v>112979.01</v>
       </c>
       <c r="J34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K34">
         <v>9</v>
@@ -3597,8 +4173,23 @@
       <c r="W34">
         <v>-1.65</v>
       </c>
+      <c r="X34">
+        <v>-3.77</v>
+      </c>
+      <c r="Y34">
+        <v>132</v>
+      </c>
+      <c r="Z34">
+        <v>3.91</v>
+      </c>
       <c r="AC34" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>1</v>
@@ -3606,22 +4197,25 @@
       <c r="AG34">
         <v>6.723989486694336</v>
       </c>
-      <c r="AH34" t="s">
-        <v>128</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301488</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>-0.03</v>
@@ -3639,7 +4233,7 @@
         <v>148557.8</v>
       </c>
       <c r="J35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K35">
         <v>6</v>
@@ -3680,8 +4274,23 @@
       <c r="W35">
         <v>-0.08</v>
       </c>
+      <c r="X35">
+        <v>-2.5</v>
+      </c>
+      <c r="Y35">
+        <v>139</v>
+      </c>
+      <c r="Z35">
+        <v>7.05</v>
+      </c>
       <c r="AC35" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3689,22 +4298,25 @@
       <c r="AG35">
         <v>4.538683414459229</v>
       </c>
-      <c r="AH35" t="s">
-        <v>128</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301489</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>8.300000000000001</v>
@@ -3722,7 +4334,7 @@
         <v>72652.44</v>
       </c>
       <c r="J36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K36">
         <v>25</v>
@@ -3763,8 +4375,23 @@
       <c r="W36">
         <v>0.32</v>
       </c>
+      <c r="X36">
+        <v>-15.29</v>
+      </c>
+      <c r="Y36">
+        <v>215.9</v>
+      </c>
+      <c r="Z36">
+        <v>-0.04</v>
+      </c>
       <c r="AC36" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3772,22 +4399,25 @@
       <c r="AG36">
         <v>5.85080623626709</v>
       </c>
-      <c r="AH36" t="s">
-        <v>128</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301617</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>-3.47</v>
@@ -3805,7 +4435,7 @@
         <v>39373.71</v>
       </c>
       <c r="J37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K37">
         <v>9</v>
@@ -3846,8 +4476,23 @@
       <c r="W37">
         <v>-1.25</v>
       </c>
+      <c r="X37">
+        <v>-5.72</v>
+      </c>
+      <c r="Y37">
+        <v>66.47</v>
+      </c>
+      <c r="Z37">
+        <v>3.37</v>
+      </c>
       <c r="AC37" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -3855,22 +4500,25 @@
       <c r="AG37">
         <v>4.607644081115723</v>
       </c>
-      <c r="AH37" t="s">
-        <v>128</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>688062</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>1.35</v>
@@ -3888,7 +4536,7 @@
         <v>109009.36</v>
       </c>
       <c r="J38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K38">
         <v>7</v>
@@ -3929,8 +4577,23 @@
       <c r="W38">
         <v>-0.5</v>
       </c>
+      <c r="X38">
+        <v>-9.59</v>
+      </c>
+      <c r="Y38">
+        <v>63</v>
+      </c>
+      <c r="Z38">
+        <v>5.05</v>
+      </c>
       <c r="AC38" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -3938,22 +4601,25 @@
       <c r="AG38">
         <v>4.934895515441895</v>
       </c>
-      <c r="AH38" t="s">
-        <v>128</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>688108</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>12.67</v>
@@ -3971,7 +4637,7 @@
         <v>256986.19</v>
       </c>
       <c r="J39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -4012,8 +4678,23 @@
       <c r="W39">
         <v>1.38</v>
       </c>
+      <c r="X39">
+        <v>1.57</v>
+      </c>
+      <c r="Y39">
+        <v>39.54</v>
+      </c>
+      <c r="Z39">
+        <v>8.99</v>
+      </c>
       <c r="AC39" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4021,22 +4702,25 @@
       <c r="AG39">
         <v>6.78196382522583</v>
       </c>
-      <c r="AH39" t="s">
-        <v>128</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688110</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>1.17</v>
@@ -4054,7 +4738,7 @@
         <v>638520.12</v>
       </c>
       <c r="J40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K40">
         <v>6</v>
@@ -4095,8 +4779,23 @@
       <c r="W40">
         <v>-0.89</v>
       </c>
+      <c r="X40">
+        <v>-17.04</v>
+      </c>
+      <c r="Y40">
+        <v>119.38</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
       <c r="AC40" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4104,22 +4803,25 @@
       <c r="AG40">
         <v>-5.999114990234375</v>
       </c>
-      <c r="AH40" t="s">
-        <v>128</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688135</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>-0.6899999999999999</v>
@@ -4137,7 +4839,7 @@
         <v>103694.68</v>
       </c>
       <c r="J41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -4178,8 +4880,23 @@
       <c r="W41">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X41">
+        <v>-10.76</v>
+      </c>
+      <c r="Y41">
+        <v>29.8</v>
+      </c>
+      <c r="Z41">
+        <v>-0.77</v>
+      </c>
       <c r="AC41" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4187,22 +4904,25 @@
       <c r="AG41">
         <v>4.506505012512207</v>
       </c>
-      <c r="AH41" t="s">
-        <v>128</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688141</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>5.6</v>
@@ -4220,7 +4940,7 @@
         <v>128818.44</v>
       </c>
       <c r="J42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -4261,8 +4981,23 @@
       <c r="W42">
         <v>-0.29</v>
       </c>
+      <c r="X42">
+        <v>-0.71</v>
+      </c>
+      <c r="Y42">
+        <v>43.62</v>
+      </c>
+      <c r="Z42">
+        <v>2.73</v>
+      </c>
       <c r="AC42" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4270,22 +5005,25 @@
       <c r="AG42">
         <v>3.629129409790039</v>
       </c>
-      <c r="AH42" t="s">
-        <v>128</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688155</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>-2.15</v>
@@ -4303,7 +5041,7 @@
         <v>38979.6</v>
       </c>
       <c r="J43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K43">
         <v>4</v>
@@ -4344,8 +5082,23 @@
       <c r="W43">
         <v>-0.22</v>
       </c>
+      <c r="X43">
+        <v>-0.42</v>
+      </c>
+      <c r="Y43">
+        <v>68.86</v>
+      </c>
+      <c r="Z43">
+        <v>8.029999999999999</v>
+      </c>
       <c r="AC43" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>1</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4353,22 +5106,25 @@
       <c r="AG43">
         <v>3.407274961471558</v>
       </c>
-      <c r="AH43" t="s">
-        <v>128</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688168</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>-0.44</v>
@@ -4386,7 +5142,7 @@
         <v>42160.91</v>
       </c>
       <c r="J44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K44">
         <v>8</v>
@@ -4427,8 +5183,23 @@
       <c r="W44">
         <v>0.46</v>
       </c>
+      <c r="X44">
+        <v>-5.82</v>
+      </c>
+      <c r="Y44">
+        <v>110.89</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
       <c r="AC44" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>0</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4436,22 +5207,25 @@
       <c r="AG44">
         <v>4.570876121520996</v>
       </c>
-      <c r="AH44" t="s">
-        <v>128</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688195</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>0.06</v>
@@ -4469,7 +5243,7 @@
         <v>124584.04</v>
       </c>
       <c r="J45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K45">
         <v>13</v>
@@ -4510,8 +5284,23 @@
       <c r="W45">
         <v>-0.02</v>
       </c>
+      <c r="X45">
+        <v>-8.02</v>
+      </c>
+      <c r="Y45">
+        <v>95.08</v>
+      </c>
+      <c r="Z45">
+        <v>13.12</v>
+      </c>
       <c r="AC45" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>1</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -4519,22 +5308,25 @@
       <c r="AG45">
         <v>4.284115791320801</v>
       </c>
-      <c r="AH45" t="s">
-        <v>128</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688201</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>0.07000000000000001</v>
@@ -4552,7 +5344,7 @@
         <v>47235.13</v>
       </c>
       <c r="J46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -4593,8 +5385,23 @@
       <c r="W46">
         <v>0.71</v>
       </c>
+      <c r="X46">
+        <v>6.41</v>
+      </c>
+      <c r="Y46">
+        <v>16.11</v>
+      </c>
+      <c r="Z46">
+        <v>9.890000000000001</v>
+      </c>
       <c r="AC46" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>1</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4602,22 +5409,25 @@
       <c r="AG46">
         <v>1.131377100944519</v>
       </c>
-      <c r="AH46" t="s">
-        <v>128</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688222</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>13.74</v>
@@ -4635,7 +5445,7 @@
         <v>133859.16</v>
       </c>
       <c r="J47" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K47">
         <v>4</v>
@@ -4676,8 +5486,23 @@
       <c r="W47">
         <v>0.7</v>
       </c>
+      <c r="X47">
+        <v>-3.82</v>
+      </c>
+      <c r="Y47">
+        <v>30.28</v>
+      </c>
+      <c r="Z47">
+        <v>5.14</v>
+      </c>
       <c r="AC47" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -4685,22 +5510,25 @@
       <c r="AG47">
         <v>3.086411714553833</v>
       </c>
-      <c r="AH47" t="s">
-        <v>128</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688228</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>0.57</v>
@@ -4718,7 +5546,7 @@
         <v>72212.74000000001</v>
       </c>
       <c r="J48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K48">
         <v>5</v>
@@ -4759,8 +5587,23 @@
       <c r="W48">
         <v>-0.22</v>
       </c>
+      <c r="X48">
+        <v>-12.58</v>
+      </c>
+      <c r="Y48">
+        <v>128</v>
+      </c>
+      <c r="Z48">
+        <v>-1.84</v>
+      </c>
       <c r="AC48" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4768,22 +5611,25 @@
       <c r="AG48">
         <v>2.809542655944824</v>
       </c>
-      <c r="AH48" t="s">
-        <v>128</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688256</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>-5.07</v>
@@ -4801,7 +5647,7 @@
         <v>1990115.12</v>
       </c>
       <c r="J49" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K49">
         <v>8</v>
@@ -4842,8 +5688,23 @@
       <c r="W49">
         <v>0.02</v>
       </c>
+      <c r="X49">
+        <v>-14.45</v>
+      </c>
+      <c r="Y49">
+        <v>1389</v>
+      </c>
+      <c r="Z49">
+        <v>-1.14</v>
+      </c>
       <c r="AC49" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -4851,22 +5712,25 @@
       <c r="AG49">
         <v>19.49960899353027</v>
       </c>
-      <c r="AH49" t="s">
-        <v>128</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688261</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>12.28</v>
@@ -4884,7 +5748,7 @@
         <v>81930.55</v>
       </c>
       <c r="J50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -4925,8 +5789,23 @@
       <c r="W50">
         <v>0.59</v>
       </c>
+      <c r="X50">
+        <v>-7.07</v>
+      </c>
+      <c r="Y50">
+        <v>95.09</v>
+      </c>
+      <c r="Z50">
+        <v>3.16</v>
+      </c>
       <c r="AC50" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -4934,22 +5813,25 @@
       <c r="AG50">
         <v>2.475810289382935</v>
       </c>
-      <c r="AH50" t="s">
-        <v>128</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688286</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>2.2</v>
@@ -4967,7 +5849,7 @@
         <v>62500.69</v>
       </c>
       <c r="J51" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K51">
         <v>4</v>
@@ -5008,8 +5890,23 @@
       <c r="W51">
         <v>0.15</v>
       </c>
+      <c r="X51">
+        <v>-10.92</v>
+      </c>
+      <c r="Y51">
+        <v>106.59</v>
+      </c>
+      <c r="Z51">
+        <v>1.81</v>
+      </c>
       <c r="AC51" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5017,22 +5914,25 @@
       <c r="AG51">
         <v>5.005070686340332</v>
       </c>
-      <c r="AH51" t="s">
-        <v>128</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688299</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-2.32</v>
@@ -5050,7 +5950,7 @@
         <v>93387.78</v>
       </c>
       <c r="J52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K52">
         <v>4</v>
@@ -5091,8 +5991,23 @@
       <c r="W52">
         <v>0.17</v>
       </c>
+      <c r="X52">
+        <v>-4.18</v>
+      </c>
+      <c r="Y52">
+        <v>25.89</v>
+      </c>
+      <c r="Z52">
+        <v>6.19</v>
+      </c>
       <c r="AC52" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5100,22 +6015,25 @@
       <c r="AG52">
         <v>2.879663705825806</v>
       </c>
-      <c r="AH52" t="s">
-        <v>128</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688313</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>4.73</v>
@@ -5133,7 +6051,7 @@
         <v>349219.4</v>
       </c>
       <c r="J53" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K53">
         <v>17</v>
@@ -5174,8 +6092,23 @@
       <c r="W53">
         <v>0.26</v>
       </c>
+      <c r="X53">
+        <v>-13.98</v>
+      </c>
+      <c r="Y53">
+        <v>85.84</v>
+      </c>
+      <c r="Z53">
+        <v>4.15</v>
+      </c>
       <c r="AC53" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5183,22 +6116,25 @@
       <c r="AG53">
         <v>3.734245538711548</v>
       </c>
-      <c r="AH53" t="s">
-        <v>128</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688331</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>-0.31</v>
@@ -5216,7 +6152,7 @@
         <v>66088.42</v>
       </c>
       <c r="J54" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -5257,8 +6193,23 @@
       <c r="W54">
         <v>0.46</v>
       </c>
+      <c r="X54">
+        <v>-4.49</v>
+      </c>
+      <c r="Y54">
+        <v>96.19</v>
+      </c>
+      <c r="Z54">
+        <v>3.99</v>
+      </c>
       <c r="AC54" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>1</v>
@@ -5266,22 +6217,25 @@
       <c r="AG54">
         <v>-2.620436668395996</v>
       </c>
-      <c r="AH54" t="s">
-        <v>129</v>
+      <c r="AH54">
+        <v>1</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688347</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>1.42</v>
@@ -5299,7 +6253,7 @@
         <v>311416.6</v>
       </c>
       <c r="J55" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K55">
         <v>13</v>
@@ -5340,8 +6294,23 @@
       <c r="W55">
         <v>-0.02</v>
       </c>
+      <c r="X55">
+        <v>-10.96</v>
+      </c>
+      <c r="Y55">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="Z55">
+        <v>-1.91</v>
+      </c>
       <c r="AC55" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5349,22 +6318,25 @@
       <c r="AG55">
         <v>2.253582715988159</v>
       </c>
-      <c r="AH55" t="s">
-        <v>128</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688388</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-1.35</v>
@@ -5382,7 +6354,7 @@
         <v>123455.92</v>
       </c>
       <c r="J56" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -5423,8 +6395,23 @@
       <c r="W56">
         <v>0.03</v>
       </c>
+      <c r="X56">
+        <v>-6.71</v>
+      </c>
+      <c r="Y56">
+        <v>34</v>
+      </c>
+      <c r="Z56">
+        <v>10.71</v>
+      </c>
       <c r="AC56" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>1</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5432,22 +6419,25 @@
       <c r="AG56">
         <v>2.304032802581787</v>
       </c>
-      <c r="AH56" t="s">
-        <v>128</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688390</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>6.12</v>
@@ -5465,7 +6455,7 @@
         <v>98668.02</v>
       </c>
       <c r="J57" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K57">
         <v>5</v>
@@ -5506,8 +6496,23 @@
       <c r="W57">
         <v>0.46</v>
       </c>
+      <c r="X57">
+        <v>-1.91</v>
+      </c>
+      <c r="Y57">
+        <v>56.54</v>
+      </c>
+      <c r="Z57">
+        <v>5.94</v>
+      </c>
       <c r="AC57" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>0</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5515,22 +6520,25 @@
       <c r="AG57">
         <v>1.127482295036316</v>
       </c>
-      <c r="AH57" t="s">
-        <v>128</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688400</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>1.99</v>
@@ -5548,7 +6556,7 @@
         <v>162867.76</v>
       </c>
       <c r="J58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -5589,8 +6597,23 @@
       <c r="W58">
         <v>0.41</v>
       </c>
+      <c r="X58">
+        <v>-14.61</v>
+      </c>
+      <c r="Y58">
+        <v>41.37</v>
+      </c>
+      <c r="Z58">
+        <v>-0.12</v>
+      </c>
       <c r="AC58" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5598,22 +6621,25 @@
       <c r="AG58">
         <v>-4.052262306213379</v>
       </c>
-      <c r="AH58" t="s">
-        <v>128</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688498</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>13.01</v>
@@ -5631,7 +6657,7 @@
         <v>278616.17</v>
       </c>
       <c r="J59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K59">
         <v>17</v>
@@ -5672,8 +6698,23 @@
       <c r="W59">
         <v>1.23</v>
       </c>
+      <c r="X59">
+        <v>-8.73</v>
+      </c>
+      <c r="Y59">
+        <v>417.44</v>
+      </c>
+      <c r="Z59">
+        <v>4.94</v>
+      </c>
       <c r="AC59" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5681,22 +6722,25 @@
       <c r="AG59">
         <v>-2.657734632492065</v>
       </c>
-      <c r="AH59" t="s">
-        <v>128</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688709</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>14.97</v>
@@ -5714,7 +6758,7 @@
         <v>207686.84</v>
       </c>
       <c r="J60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K60">
         <v>9</v>
@@ -5755,8 +6799,23 @@
       <c r="W60">
         <v>0.74</v>
       </c>
+      <c r="X60">
+        <v>-10.02</v>
+      </c>
+      <c r="Y60">
+        <v>57.5</v>
+      </c>
+      <c r="Z60">
+        <v>1.05</v>
+      </c>
       <c r="AC60" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>1</v>
@@ -5764,8 +6823,11 @@
       <c r="AG60">
         <v>3.119055271148682</v>
       </c>
-      <c r="AH60" t="s">
-        <v>129</v>
+      <c r="AH60">
+        <v>1</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
